--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696006.865690656</v>
+        <v>-701294.9811854279</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12518541.9157727</v>
+        <v>12516771.97760144</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>232.4761079041707</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>156.6011273673247</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -744,10 +744,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>73.09177164960315</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072217</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.6550748217927</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>51.5558842308513</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>378.4257601748828</v>
       </c>
       <c r="G5" t="n">
-        <v>156.7596856990706</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226133</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614928</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.8340739597078</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>171.424434892297</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>311.481601982858</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>164.6379696118487</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>114.7890777533882</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>153.3905636975952</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>304.412301458391</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.66909756475786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>88.08077626249356</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>16.05788523920972</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>86.04016346804826</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>233.0940356021712</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8090523850615</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1822,16 +1822,16 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>3.303769735982462</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422876545</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815726</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093884</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227886</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619106</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126117</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564639</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574954</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564967</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434672</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308065</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086851</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435634</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158946</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167799</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.7231469819604</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380012</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667923</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.9727556664465</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883864</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541068</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658261</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038528</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656585</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407379</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546737</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221364</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1017.840620559692</v>
+        <v>1264.735942235427</v>
       </c>
       <c r="C2" t="n">
-        <v>1017.840620559692</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>1017.840620559692</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>615.2570956762368</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>602.4030612466186</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354862</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354862</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737747</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737747</v>
+        <v>1661.226651314826</v>
       </c>
       <c r="W2" t="n">
-        <v>1803.783934706034</v>
+        <v>1661.226651314826</v>
       </c>
       <c r="X2" t="n">
-        <v>1414.331329639091</v>
+        <v>1661.226651314826</v>
       </c>
       <c r="Y2" t="n">
-        <v>1017.840620559692</v>
+        <v>1264.735942235427</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902142</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622342</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837145</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0702200837145</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="N3" t="n">
-        <v>2036.433443595206</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737747</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431033</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1563.646806045638</v>
+        <v>382.1528738960002</v>
       </c>
       <c r="C4" t="n">
-        <v>1430.661881983222</v>
+        <v>382.1528738960002</v>
       </c>
       <c r="D4" t="n">
-        <v>1430.661881983222</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="E4" t="n">
-        <v>1430.661881983222</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196194</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196194</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196194</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306136</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179936</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.5902065182</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549409</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591117</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367696</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737747</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737747</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>1971.966885920296</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="T4" t="n">
-        <v>1971.966885920296</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="U4" t="n">
-        <v>1971.966885920296</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="V4" t="n">
-        <v>1971.966885920296</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="W4" t="n">
-        <v>1971.966885920296</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="X4" t="n">
-        <v>1971.966885920296</v>
+        <v>382.1528738960002</v>
       </c>
       <c r="Y4" t="n">
-        <v>1748.85482473694</v>
+        <v>382.1528738960002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1004.174343515858</v>
+        <v>835.4573657122784</v>
       </c>
       <c r="C5" t="n">
-        <v>1004.174343515858</v>
+        <v>835.4573657122784</v>
       </c>
       <c r="D5" t="n">
-        <v>618.7332147325253</v>
+        <v>835.4573657122784</v>
       </c>
       <c r="E5" t="n">
-        <v>618.7332147325253</v>
+        <v>432.8738408288229</v>
       </c>
       <c r="F5" t="n">
-        <v>201.8387762625031</v>
+        <v>50.62559822793115</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1549.89780870447</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.89780870447</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>1992.097946913173</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1992.097946913173</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>1851.661735376335</v>
       </c>
       <c r="U5" t="n">
-        <v>1746.775898523736</v>
+        <v>1595.909005810934</v>
       </c>
       <c r="V5" t="n">
-        <v>1404.669089227255</v>
+        <v>1595.909005810934</v>
       </c>
       <c r="W5" t="n">
-        <v>1404.669089227255</v>
+        <v>1224.909970779222</v>
       </c>
       <c r="X5" t="n">
-        <v>1404.669089227255</v>
+        <v>835.4573657122784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.669089227255</v>
+        <v>835.4573657122784</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902142</v>
+        <v>556.1927859813138</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622342</v>
+        <v>405.538555541406</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837145</v>
+        <v>275.4495881628864</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946022</v>
+        <v>139.0030972737741</v>
       </c>
       <c r="F6" t="n">
-        <v>114.191923077734</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767087</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653855</v>
+        <v>813.5918890426536</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1327.194567652341</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996756</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267596</v>
+        <v>887.3033373467679</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431033</v>
+        <v>707.9891204222752</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.8129058187022</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="C7" t="n">
-        <v>191.8129058187022</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="D7" t="n">
-        <v>191.8129058187022</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931585</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>71.88151693023643</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>533.6104881723686</v>
       </c>
       <c r="V7" t="n">
-        <v>709.2236301045415</v>
+        <v>533.6104881723686</v>
       </c>
       <c r="W7" t="n">
-        <v>425.8932280357191</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="X7" t="n">
-        <v>191.8129058187022</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.8129058187022</v>
+        <v>360.4544933316646</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1033.091912860929</v>
+        <v>1654.529915207016</v>
       </c>
       <c r="C8" t="n">
-        <v>1033.091912860929</v>
+        <v>1261.354413709946</v>
       </c>
       <c r="D8" t="n">
-        <v>1033.091912860929</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="E8" t="n">
-        <v>630.5083879774736</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="F8" t="n">
-        <v>213.6139495074514</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4808,16 +4808,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1429.582621940328</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1033.091912860929</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805892</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>1789.781471223209</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>1789.781471223209</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>1789.781471223209</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>1789.781471223209</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R10" t="n">
-        <v>832.8114292558353</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S10" t="n">
-        <v>832.8114292558353</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T10" t="n">
-        <v>832.8114292558353</v>
+        <v>2129.929453245415</v>
       </c>
       <c r="U10" t="n">
-        <v>547.3726374977363</v>
+        <v>2129.929453245415</v>
       </c>
       <c r="V10" t="n">
-        <v>281.3932923185605</v>
+        <v>1974.98948991451</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>1974.98948991451</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>1974.98948991451</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>1974.98948991451</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1929.070886272803</v>
+        <v>1405.326329274748</v>
       </c>
       <c r="C11" t="n">
-        <v>1607.691659921928</v>
+        <v>1083.947102923872</v>
       </c>
       <c r="D11" t="n">
-        <v>1294.046806284789</v>
+        <v>770.3022492867337</v>
       </c>
       <c r="E11" t="n">
-        <v>963.2595565475281</v>
+        <v>439.5149995494721</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572342</v>
+        <v>439.5149995494721</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914312</v>
+        <v>98.14851918366912</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>98.14851918366912</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X11" t="n">
-        <v>2257.769356838006</v>
+        <v>2058.719233773156</v>
       </c>
       <c r="Y11" t="n">
-        <v>2257.769356838006</v>
+        <v>1734.024799839951</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420618</v>
+        <v>416.9138851238266</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542449</v>
+        <v>327.9434040506007</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029534</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083498</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5230,19 +5230,19 @@
         <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245439</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245439</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8227395243321</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8227395243321</v>
+        <v>530.325628668934</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871693</v>
+        <v>530.325628668934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.037022769199</v>
+        <v>1294.528146303274</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.657796418324</v>
+        <v>973.148919952398</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>659.5040663152596</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>659.5040663152596</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3019.047129177445</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2835.090674758238</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2564.78014060795</v>
       </c>
       <c r="W14" t="n">
-        <v>2624.086257188357</v>
+        <v>2265.577380722431</v>
       </c>
       <c r="X14" t="n">
-        <v>2306.429927267608</v>
+        <v>1947.921050801682</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.735493334402</v>
+        <v>1623.226616868477</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.9286742651868</v>
+        <v>413.5767439763692</v>
       </c>
       <c r="C16" t="n">
-        <v>443.51983147737</v>
+        <v>315.1679011885523</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106412</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160376</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>1067.062634295801</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W16" t="n">
-        <v>855.5285073731727</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X16" t="n">
-        <v>693.2444603023497</v>
+        <v>526.9884875214766</v>
       </c>
       <c r="Y16" t="n">
-        <v>541.9286742651868</v>
+        <v>526.9884875214766</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,7 +5543,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.56928853388</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924335</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>803.0057595505241</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,25 +5908,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229905</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222409</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5969,16 +5969,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,25 +6145,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6209,19 +6209,19 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,31 +6233,31 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118093</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238552</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6300,19 +6300,19 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755027</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755027</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879682</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904109</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6409,25 +6409,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,19 +6464,19 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958361</v>
+        <v>700.0178648958356</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918587</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303043</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993066</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108098</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835468</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.8570290861563</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>725.8995309768976</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1330.87194327041</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1876.87284331499</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315959</v>
+        <v>2844.723727844781</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3192.911219976303</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929695</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404842</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245245</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652525</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.624833259751</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407221</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.7304500837416</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076204</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729547</v>
+        <v>575.8353109291554</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041639</v>
+        <v>870.6770655353478</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872942</v>
+        <v>1033.381832577056</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928618</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387754</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451829</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625015</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273648</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400679</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045764</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027453</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924224</v>
@@ -6935,19 +6935,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7324,31 +7324,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,16 +7445,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960415</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>281.2999319572</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920138</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970412</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886034</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>232.4345549924652</v>
+        <v>574.7607069788136</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,7 +8222,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>664.3207371077235</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>228.4021235736909</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999556</v>
+        <v>383.8240476937584</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083963</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431186</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,7 +8456,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>454.191973973224</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>377.8426560230623</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>373.1055958271594</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>546.0917343741362</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>510.5662141339224</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>684.2495388215582</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,7 +10200,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>684.2495388215578</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11139,25 +11139,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11385,7 +11385,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.23488023219912</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>30.20633577897004</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9.343978097445198</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>193.3609004141925</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>64.1471205533973</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>63.11669668449225</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>29.18941718671697</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>157.3574368641323</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.097362201107899e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1096568.955445589</v>
+        <v>1095666.634024949</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1096568.955445589</v>
+        <v>1095666.634024949</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>978931.1171804332</v>
+        <v>978931.1171804331</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026925</v>
       </c>
       <c r="C2" t="n">
         <v>198365.3959026925</v>
       </c>
       <c r="D2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="E2" t="n">
         <v>175294.9257668407</v>
@@ -26329,13 +26329,13 @@
         <v>198365.3959026924</v>
       </c>
       <c r="H2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="I2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="J2" t="n">
         <v>198365.3959026925</v>
-      </c>
-      <c r="I2" t="n">
-        <v>198365.3959026925</v>
-      </c>
-      <c r="J2" t="n">
-        <v>198365.3959026924</v>
       </c>
       <c r="K2" t="n">
         <v>198365.3959026924</v>
@@ -26350,10 +26350,10 @@
         <v>198365.3959026924</v>
       </c>
       <c r="O2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="P2" t="n">
         <v>198365.3959026925</v>
-      </c>
-      <c r="P2" t="n">
-        <v>198365.3959026924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401375</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539697</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.207919095</v>
+        <v>205625.0607746778</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746778</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26430,7 +26430,7 @@
         <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="H4" t="n">
         <v>160556.29099179</v>
@@ -26439,13 +26439,13 @@
         <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
-        <v>161306.7834561732</v>
+        <v>161306.7834561731</v>
       </c>
       <c r="K4" t="n">
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26457,7 +26457,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="P4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="O5" t="n">
-        <v>58169.76931551968</v>
-      </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250339.061448272</v>
+        <v>-246288.3894408572</v>
       </c>
       <c r="C6" t="n">
-        <v>-68134.11315641621</v>
+        <v>-72429.73240680249</v>
       </c>
       <c r="D6" t="n">
-        <v>-74726.17449613861</v>
+        <v>-82462.46371953041</v>
       </c>
       <c r="E6" t="n">
-        <v>-102811.0299072522</v>
+        <v>-103020.7614539417</v>
       </c>
       <c r="F6" t="n">
-        <v>9311.531566792357</v>
+        <v>9101.80002010281</v>
       </c>
       <c r="G6" t="n">
-        <v>-67785.98994129922</v>
+        <v>-67785.98994129911</v>
       </c>
       <c r="H6" t="n">
-        <v>-20360.66440461716</v>
+        <v>-20360.66440461733</v>
       </c>
       <c r="I6" t="n">
         <v>-20360.66440461719</v>
       </c>
       <c r="J6" t="n">
-        <v>-233402.5820019028</v>
+        <v>-226886.2968473293</v>
       </c>
       <c r="K6" t="n">
-        <v>-26600.43280740022</v>
+        <v>-26600.43280740016</v>
       </c>
       <c r="L6" t="n">
-        <v>-81783.02174202116</v>
+        <v>-85831.85895249349</v>
       </c>
       <c r="M6" t="n">
-        <v>-62561.49386424025</v>
+        <v>-63613.18887542841</v>
       </c>
       <c r="N6" t="n">
-        <v>-20360.66440461722</v>
+        <v>-20360.66440461725</v>
       </c>
       <c r="O6" t="n">
-        <v>-48128.35844738841</v>
+        <v>-48128.35844738843</v>
       </c>
       <c r="P6" t="n">
-        <v>-20360.66440461719</v>
+        <v>-20360.66440461703</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293128</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="O4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014443</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924622</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287416</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042804</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>176.5550200527062</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27433,16 +27433,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>182.0846138361921</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27464,10 +27464,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.09571640609637</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758589</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>36.84799193287796</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>102.5208977356591</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>34.29973391043922</v>
       </c>
       <c r="G5" t="n">
-        <v>252.2714422578062</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343818</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270492</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27780,7 +27780,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>7.169150059681726</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>109.0726631558372</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>85.00819627142494</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>244.3931583450282</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,13 +27910,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,10 +28020,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>7.872901720360588</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>109.9289880297889</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668788</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901266</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>43.49509683159545</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566375</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253946</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455030774</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="35">
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30168,28 +30168,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30642,13 +30642,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529575</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>128.0517622267083</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729448</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7469961035763</v>
+        <v>482.0731480899247</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>514.5956855099962</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>83.90342515529878</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200683643</v>
+        <v>291.4369256444465</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,7 +35176,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>303.8905267322988</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>292.4705431688957</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7334829729927</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>460.7196215199696</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>425.1941012797557</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528808</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101047</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907923</v>
+        <v>392.8806780907918</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>598.8774259673912</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987992</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>406.1035372633751</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409213</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114501</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345594</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>264.9671660030997</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476691</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106684</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828628</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133955</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38178,7 +38178,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
